--- a/average_precision/MAP-NSF14-VS-NSC14-all_features.xlsx
+++ b/average_precision/MAP-NSF14-VS-NSC14-all_features.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leviking/Documents/dissertation/SAILS/average_precision/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7D0615-3EF0-0A4F-8874-5E358E4E28F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9E7936-7F33-4E4C-975A-530AC8637563}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="2000" windowWidth="24640" windowHeight="14000" xr2:uid="{508D85D8-6FB6-DF43-832F-A4DCA910D0E6}"/>
+    <workbookView xWindow="460" yWindow="920" windowWidth="24640" windowHeight="14000" xr2:uid="{508D85D8-6FB6-DF43-832F-A4DCA910D0E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E84A4D-0F31-124A-8CBD-01337DD4D73B}">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
